--- a/Original_Excel_Files/PS.xlsx
+++ b/Original_Excel_Files/PS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8553F13-AA88-41F0-B7B2-8448C1547C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D99BD72-9499-4937-82A0-BC159E4768F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="507">
   <si>
     <t>PS3561 .I78 M56 1996</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Dancing at the Edge of the World: Thoughts on Words, Women, Places</t>
-  </si>
-  <si>
-    <t>Human Evolution: a very short introduction</t>
   </si>
   <si>
     <t>PS121 .B59</t>
@@ -2065,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="F356" sqref="F356:G356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2079,69 +2076,69 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>505</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" t="s">
         <v>506</v>
-      </c>
-      <c r="C1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B2" s="28">
         <v>1949</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="30">
         <v>1997</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -2149,13 +2146,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="30">
         <v>1941</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -2163,36 +2160,36 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="28">
         <v>1951</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="C9" t="s">
         <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
       <c r="A10" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -2200,23 +2197,23 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
       <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="C11" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -2224,25 +2221,25 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1">
       <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="C13" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1">
       <c r="A14" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="30">
         <v>2000</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -2250,13 +2247,13 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="30">
         <v>1971</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="7"/>
@@ -2264,48 +2261,48 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="C16" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1">
       <c r="A17" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="30">
         <v>1953</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="28">
         <v>2000</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="28">
         <v>1992</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="13"/>
     </row>
@@ -2335,259 +2332,259 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="30">
         <v>1959</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="28">
         <v>1942</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1">
       <c r="A24" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="28">
         <v>1942</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1">
       <c r="A25" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="30">
         <v>1970</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="C26" t="s">
         <v>501</v>
-      </c>
-      <c r="C26" t="s">
-        <v>502</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="28">
         <v>1977</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="28">
         <v>1946</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="28">
         <v>1949</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
       <c r="A30" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" s="28">
         <v>1983</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1">
       <c r="A31" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="30">
         <v>1994</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
       <c r="A32" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="30">
         <v>1940</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1">
       <c r="A33" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33" s="30">
         <v>1974</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1">
       <c r="A34" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" s="30">
         <v>1962</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1">
       <c r="A35" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" s="30">
         <v>1961</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1">
       <c r="A36" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="30">
         <v>1946</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1">
       <c r="A37" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" s="30">
         <v>1955</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1">
       <c r="A38" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" s="30">
         <v>1940</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1">
       <c r="A39" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="C39" t="s">
         <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>44</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1">
       <c r="A40" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B40" s="30">
         <v>1968</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1">
       <c r="A41" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B41" s="30">
         <v>1979</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1">
       <c r="A42" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42" s="30">
         <v>1928</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1">
       <c r="A43" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B43" s="30">
         <v>1923</v>
@@ -2599,7 +2596,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1">
       <c r="A44" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44" s="30">
         <v>1950</v>
@@ -2613,13 +2610,13 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1">
       <c r="A45" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" s="30">
         <v>1982</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -2651,25 +2648,25 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B48" s="28">
         <v>1959</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" s="28">
         <v>1961</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F49" s="5"/>
     </row>
@@ -2699,1151 +2696,1151 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1">
       <c r="A52" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B52" s="28">
         <v>1991</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1">
       <c r="A53" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="C53" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1">
       <c r="A54" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B54" s="30">
         <v>1982</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1">
       <c r="A55" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" s="30">
         <v>1988</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1">
       <c r="A56" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" s="28">
         <v>1972</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1">
       <c r="A57" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B57" s="30">
         <v>1974</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1">
       <c r="A58" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B58" s="28">
         <v>1961</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1">
       <c r="A59" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59" s="30">
         <v>1966</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1">
       <c r="A60" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="C60" t="s">
         <v>74</v>
-      </c>
-      <c r="C60" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1">
       <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="C61" t="s">
         <v>77</v>
-      </c>
-      <c r="C61" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1">
       <c r="A62" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B62" s="30">
         <v>1967</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1">
       <c r="A63" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B63" s="28">
         <v>1941</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1">
       <c r="A64" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B64" s="30">
         <v>1940</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1">
       <c r="A65" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B65" s="30">
         <v>1966</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1">
       <c r="A66" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
         <v>65</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1">
       <c r="A67" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B67" s="28">
         <v>1972</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1">
       <c r="A68" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68" s="30">
         <v>1995</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" thickBot="1">
       <c r="A69" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B69" s="30">
         <v>1948</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1">
       <c r="A70" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B70" s="30">
         <v>1931</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1">
       <c r="A71" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B71" s="30">
         <v>1945</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1">
       <c r="A72" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B72" s="30">
         <v>1990</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1">
       <c r="A73" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B73" s="30">
         <v>1978</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1">
       <c r="A74" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B74" s="30">
         <v>1978</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1">
       <c r="A75" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B75" s="30">
         <v>1985</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1">
       <c r="A76" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B76" s="30">
         <v>1970</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" thickBot="1">
       <c r="A77" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B77" s="30">
         <v>1971</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" thickBot="1">
       <c r="A78" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="C78" t="s">
         <v>80</v>
-      </c>
-      <c r="C78" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B79" s="28">
         <v>1984</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B80" s="28">
         <v>1991</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B81" s="28">
         <v>1991</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B82" s="28">
         <v>1991</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="C83" t="s">
         <v>49</v>
-      </c>
-      <c r="C83" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B84" s="28">
         <v>1995</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" thickBot="1">
       <c r="A85" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B85" s="28">
         <v>1971</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" thickBot="1">
       <c r="A86" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" s="30">
         <v>1976</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1">
       <c r="A87" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B87" s="30">
         <v>1995</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" thickBot="1">
       <c r="A88" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B88" s="30">
         <v>1993</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B89" s="28">
         <v>1956</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1">
       <c r="A90" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B90" s="28">
         <v>1970</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1">
       <c r="A91" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B91" s="30">
         <v>1979</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1">
       <c r="A92" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B92" s="30">
         <v>1984</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1">
       <c r="A93" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B93" s="30">
         <v>2001</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1">
       <c r="A94" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B94" s="30">
         <v>1968</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1">
       <c r="A95" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B95" s="30">
         <v>1974</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1">
       <c r="A96" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B96" s="27" t="s">
+      <c r="C96" t="s">
         <v>52</v>
-      </c>
-      <c r="C96" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" thickBot="1">
       <c r="A97" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="27" t="s">
+      <c r="C97" t="s">
         <v>55</v>
-      </c>
-      <c r="C97" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1">
       <c r="A98" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B98" s="30">
         <v>1998</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B99" s="28">
         <v>1985</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B100" s="28">
         <v>1973</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B101" s="28">
         <v>1995</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B102" s="28">
         <v>1989</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="C103" t="s">
         <v>83</v>
-      </c>
-      <c r="C103" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B104" s="28">
         <v>1988</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B105" s="28">
         <v>1983</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1">
       <c r="A106" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B106" s="28">
         <v>1998</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1">
       <c r="A107" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B107" s="30">
         <v>1991</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B108" s="28">
         <v>1994</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B109" s="28">
         <v>1985</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" thickBot="1">
       <c r="A110" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B110" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C110" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1">
       <c r="A111" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B111" s="30">
         <v>1988</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B112" s="28">
         <v>1982</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1">
       <c r="A113" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B113" s="28">
         <v>1970</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1">
       <c r="A114" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B114" s="30">
         <v>1977</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" thickBot="1">
       <c r="A115" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B115" s="30">
         <v>1984</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" thickBot="1">
       <c r="A116" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B116" s="30">
         <v>1996</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" thickBot="1">
       <c r="A117" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B117" s="30">
         <v>1997</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B118" s="28">
         <v>2000</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" thickBot="1">
       <c r="A119" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B119" s="28">
         <v>2001</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" thickBot="1">
       <c r="A120" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B120" s="31"/>
       <c r="C120" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" t="s">
         <v>85</v>
-      </c>
-      <c r="B121" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C121" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B122" s="28">
         <v>1988</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B123" s="28">
         <v>1972</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B124" s="28">
         <v>1979</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B125" s="28">
         <v>1984</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" thickBot="1">
       <c r="A126" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B126" s="28">
         <v>1984</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1">
       <c r="A127" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B127" s="30">
         <v>1978</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1">
       <c r="A128" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B128" s="28">
         <v>2001</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" thickBot="1">
       <c r="A129" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B129" s="30">
         <v>1993</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1">
       <c r="A130" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B130" s="28">
         <v>1987</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
       <c r="A131" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B131" s="30">
         <v>1992</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" thickBot="1">
       <c r="A132" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B132" s="30">
         <v>1999</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
+        <v>66</v>
+      </c>
+      <c r="B133" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B133" s="27" t="s">
+      <c r="C133" t="s">
         <v>68</v>
-      </c>
-      <c r="C133" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" thickBot="1">
       <c r="A134" t="s">
+        <v>58</v>
+      </c>
+      <c r="B134" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B134" s="27" t="s">
+      <c r="C134" t="s">
         <v>60</v>
-      </c>
-      <c r="C134" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1">
       <c r="A135" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B135" s="30">
         <v>1983</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B136" s="28">
         <v>2004</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" thickBot="1">
       <c r="A137" t="s">
+        <v>69</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" t="s">
         <v>70</v>
-      </c>
-      <c r="B137" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C137" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" thickBot="1">
       <c r="A138" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B138" s="30">
         <v>1990</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
       <c r="A139" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B139" s="30">
         <v>1995</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
       <c r="A140" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B140" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C140" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1">
       <c r="A141" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B141" s="30">
         <v>2001</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" thickBot="1">
       <c r="A142" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B142" s="30">
         <v>1989</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B143" s="28">
         <v>1986</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" thickBot="1">
       <c r="A144" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B144" s="28">
         <v>1990</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1">
       <c r="A145" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B145" s="30">
         <v>1994</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
       <c r="A146" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B146" s="30">
         <v>1990</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" thickBot="1">
       <c r="A147" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B147" s="30">
         <v>2003</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" thickBot="1">
       <c r="A148" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B148" s="30">
         <v>1978</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" thickBot="1">
       <c r="A149" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B149" s="30">
         <v>1989</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" thickBot="1">
       <c r="A150" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B150" s="30">
         <v>1999</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B151" s="28">
         <v>2003</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B152" s="28">
         <v>1991</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B153" s="28">
         <v>1996</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
       <c r="A154" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B154" s="28">
         <v>2003</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" thickBot="1">
       <c r="A155" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B155" s="30">
         <v>1997</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15.75" thickBot="1">
@@ -3870,79 +3867,79 @@
     </row>
     <row r="158" spans="1:3" ht="15.75" thickBot="1">
       <c r="A158" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B158" s="30">
         <v>2009</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" thickBot="1">
       <c r="A159" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B159" s="28">
         <v>1997</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" thickBot="1">
       <c r="A160" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B160" s="30">
         <v>1990</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.75" thickBot="1">
       <c r="A161" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B161" s="30">
         <v>1988</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" thickBot="1">
       <c r="A162" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B162" s="30">
         <v>2009</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" thickBot="1">
       <c r="A163" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B163" s="30">
         <v>2000</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" thickBot="1">
       <c r="A164" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B164" s="30">
         <v>2003</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" thickBot="1">
@@ -3991,102 +3988,102 @@
     </row>
     <row r="169" spans="1:5" ht="15.75" thickBot="1">
       <c r="A169" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B169" s="28">
         <v>1981</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5" ht="15.75" thickBot="1">
       <c r="A170" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B170" s="30">
         <v>2003</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.75" thickBot="1">
       <c r="A171" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B171" s="30">
         <v>2002</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.75" thickBot="1">
       <c r="A172" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B172" s="30">
         <v>1999</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" thickBot="1">
       <c r="A173" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B173" s="30">
         <v>1998</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.75" thickBot="1">
       <c r="A174" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B174" s="30">
         <v>1987</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" thickBot="1">
       <c r="A175" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B175" s="30">
         <v>1985</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" thickBot="1">
       <c r="A176" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B176" s="30">
         <v>1980</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B177" s="28">
         <v>1982</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.75" thickBot="1">
@@ -4124,244 +4121,244 @@
     </row>
     <row r="181" spans="1:3" ht="15.75" thickBot="1">
       <c r="A181" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B181" s="30">
         <v>1974</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15.75" thickBot="1">
       <c r="A182" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B182" s="30">
         <v>1995</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15.75" thickBot="1">
       <c r="A183" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B183" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B183" s="29" t="s">
+      <c r="C183" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15.75" thickBot="1">
       <c r="A184" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B184" s="30">
         <v>1985</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B185" s="28">
         <v>1984</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.75" thickBot="1">
       <c r="A186" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B186" s="28">
         <v>1983</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15.75" thickBot="1">
       <c r="A187" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B187" s="30">
         <v>1957</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15.75" thickBot="1">
       <c r="A188" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B188" s="30">
         <v>1966</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15.75" thickBot="1">
       <c r="A189" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B189" s="30">
         <v>1971</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15.75" thickBot="1">
       <c r="A190" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B190" s="28">
         <v>1987</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15.75" thickBot="1">
       <c r="A191" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B191" s="30">
         <v>1987</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
       <c r="A192" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B192" s="28">
         <v>1979</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.75" thickBot="1">
       <c r="A193" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B193" s="30">
         <v>1965</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.75" thickBot="1">
       <c r="A194" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B194" s="28">
         <v>1990</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15.75" thickBot="1">
       <c r="A195" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B195" s="30">
         <v>2003</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.75" thickBot="1">
       <c r="A196" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B196" s="30">
         <v>1988</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1">
       <c r="A197" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B197" s="30">
         <v>1987</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.75" thickBot="1">
       <c r="A198" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B198" s="30">
         <v>1981</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1">
       <c r="A199" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B199" s="30">
         <v>1994</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" thickBot="1">
       <c r="A200" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B200" s="30">
         <v>1982</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.75" thickBot="1">
       <c r="A201" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B201" s="30">
         <v>1986</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15.75" thickBot="1">
       <c r="A202" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B202" s="30">
         <v>1996</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15.75" thickBot="1">
@@ -4403,453 +4400,453 @@
     </row>
     <row r="206" spans="1:5" ht="15.75" thickBot="1">
       <c r="A206" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B206" s="30">
         <v>1985</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15.75" thickBot="1">
       <c r="A207" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B207" s="30">
         <v>1992</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15.75" thickBot="1">
       <c r="A208" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B208" s="30">
         <v>1984</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15.75" thickBot="1">
       <c r="A209" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B209" s="30">
         <v>1993</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="15.75" thickBot="1">
       <c r="A210" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B210" s="30">
         <v>1991</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15.75" thickBot="1">
       <c r="A211" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B211" s="30">
         <v>1981</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15.75" thickBot="1">
       <c r="A212" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B212" s="30">
         <v>1972</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15.75" thickBot="1">
       <c r="A213" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B213" s="30">
         <v>1981</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15.75" thickBot="1">
       <c r="A214" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B214" s="30">
         <v>2004</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15.75" thickBot="1">
       <c r="A215" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B215" s="28">
         <v>1986</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1">
       <c r="A216" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B216" s="30">
         <v>1994</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15.75" thickBot="1">
       <c r="A217" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B217" s="30">
         <v>1967</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="15.75" thickBot="1">
       <c r="A218" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B218" s="28">
         <v>2005</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15.75" thickBot="1">
       <c r="A219" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B219" s="30">
         <v>1997</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1">
       <c r="A220" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B220" s="30">
         <v>1999</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
       <c r="A221" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B221" s="30">
         <v>1988</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15.75" thickBot="1">
       <c r="A222" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B222" s="30">
         <v>1993</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15.75" thickBot="1">
       <c r="A223" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B223" s="30">
         <v>1983</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
       <c r="A224" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B224" s="28">
         <v>2008</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="15.75" thickBot="1">
       <c r="A225" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B225" s="30">
         <v>1967</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="15.75" thickBot="1">
       <c r="A226" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B226" s="28">
         <v>1997</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="15.75" thickBot="1">
       <c r="A227" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B227" s="30">
         <v>1989</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B228" s="28">
         <v>1991</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="15.75" thickBot="1">
       <c r="A229" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B229" s="28">
         <v>2008</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15.75" thickBot="1">
       <c r="A230" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B230" s="30">
         <v>2001</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B231" s="28">
         <v>1986</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B232" s="28">
         <v>1988</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="15.75" thickBot="1">
       <c r="A233" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B233" s="28">
         <v>1968</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="15.75" thickBot="1">
       <c r="A234" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B234" s="30">
         <v>1968</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="15.75" thickBot="1">
       <c r="A235" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B235" s="30">
         <v>1990</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="15.75" thickBot="1">
       <c r="A236" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B236" s="30">
         <v>1973</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="15.75" thickBot="1">
       <c r="A237" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B237" s="28">
         <v>1982</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="15.75" thickBot="1">
       <c r="A238" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B238" s="30">
         <v>2007</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="15.75" thickBot="1">
       <c r="A239" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B239" s="30">
         <v>2003</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1">
       <c r="A240" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B240" s="30">
         <v>2004</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="15.75" thickBot="1">
       <c r="A241" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B241" s="30">
         <v>1980</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="15.75" thickBot="1">
       <c r="A242" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B242" s="30">
         <v>1961</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="15.75" thickBot="1">
       <c r="A243" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B243" s="30">
         <v>1956</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="15.75" thickBot="1">
       <c r="A244" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B244" s="30">
         <v>1970</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="15.75" thickBot="1">
       <c r="A245" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B245" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C245" t="s">
         <v>87</v>
-      </c>
-      <c r="B245" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C245" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="15.75" thickBot="1">
       <c r="A246" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B246" s="28">
         <v>1971</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="15.75" thickBot="1">
@@ -4877,7 +4874,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B249" s="27" t="s">
         <v>12</v>
@@ -4888,48 +4885,48 @@
     </row>
     <row r="250" spans="1:6" ht="15.75" thickBot="1">
       <c r="A250" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B250" s="28">
         <v>1956</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E250" s="6"/>
       <c r="F250" s="5"/>
     </row>
     <row r="251" spans="1:6" ht="15.75" thickBot="1">
       <c r="A251" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B251" s="30">
         <v>1955</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="15.75" thickBot="1">
       <c r="A252" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B252" s="30">
         <v>1955</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B253" s="36">
         <v>1970</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D253" s="16"/>
       <c r="E253" s="6"/>
@@ -4937,78 +4934,78 @@
     </row>
     <row r="254" spans="1:6" ht="15.75" thickBot="1">
       <c r="A254" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B254" s="28">
         <v>1972</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E254" s="6"/>
       <c r="F254" s="5"/>
     </row>
     <row r="255" spans="1:6" ht="15.75" thickBot="1">
       <c r="A255" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B255" s="30">
         <v>1953</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E255" s="6"/>
       <c r="F255" s="5"/>
     </row>
     <row r="256" spans="1:6" ht="15.75" thickBot="1">
       <c r="A256" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B256" s="30">
         <v>1995</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E256" s="6"/>
       <c r="F256" s="5"/>
     </row>
     <row r="257" spans="1:6" ht="15.75" thickBot="1">
       <c r="A257" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B257" s="30">
         <v>1992</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E257" s="6"/>
       <c r="F257" s="5"/>
     </row>
     <row r="258" spans="1:6" ht="15.75" thickBot="1">
       <c r="A258" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B258" s="30">
         <v>1983</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E258" s="6"/>
       <c r="F258" s="5"/>
     </row>
     <row r="259" spans="1:6" ht="15.75" thickBot="1">
       <c r="A259" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B259" s="30">
         <v>1941</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E259" s="6"/>
       <c r="F259" s="5"/>
@@ -5516,12 +5513,8 @@
       <c r="A356" s="18"/>
       <c r="B356" s="35"/>
       <c r="C356" s="18"/>
-      <c r="F356" s="4">
-        <v>2005</v>
-      </c>
-      <c r="G356" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="F356" s="4"/>
+      <c r="G356" s="4"/>
     </row>
     <row r="357" spans="1:7" ht="15.75" thickBot="1">
       <c r="A357" s="18"/>
